--- a/2022-06-16.xlsx
+++ b/2022-06-16.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Var Dispositivos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean-REDCompañia-Fase-1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean-REDCompañia-Fase-2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean-REDCompañia-Fase-3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean-CentralFotovoltaica-Fase-1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean-CentralFotovoltaica-Fase-2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean-CentralFotovoltaica-Fase-3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean-ConsumoCliente-Fase-1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean-ConsumoCliente-Fase-2" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean-ConsumoCliente-Fase-3" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REDCompañia-Fase-1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REDCompañia-Fase-2" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REDCompañia-Fase-3" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CentralFotovoltaica-Fase-1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CentralFotovoltaica-Fase-2" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CentralFotovoltaica-Fase-3" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConsumoCliente-Fase-1" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConsumoCliente-Fase-2" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConsumoCliente-Fase-3" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaxHora Fase 1" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaxHora Fase 2" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaxHora Fase 3" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Var Dispositivos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Mean-REDCompañia-Fase-1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Mean-REDCompañia-Fase-2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mean-REDCompañia-Fase-3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Mean-CentralFotovoltaica-Fase-1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Mean-CentralFotovoltaica-Fase-2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mean-CentralFotovoltaica-Fase-3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mean-ConsumoCliente-Fase-1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mean-ConsumoCliente-Fase-2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Mean-ConsumoCliente-Fase-3" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="REDCompañia-Fase-1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="REDCompañia-Fase-2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="REDCompañia-Fase-3" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="CentralFotovoltaica-Fase-1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="CentralFotovoltaica-Fase-2" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="CentralFotovoltaica-Fase-3" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ConsumoCliente-Fase-1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="ConsumoCliente-Fase-2" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="ConsumoCliente-Fase-3" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="MaxHora Fase 1" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="MaxHora Fase 2" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="MaxHora Fase 3" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -147,6 +147,216 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Energias Fase 1</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <areaChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'MaxHora Fase 1'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'MaxHora Fase 1'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MaxHora Fase 1'!$B$2:$B$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'MaxHora Fase 1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'MaxHora Fase 1'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MaxHora Fase 1'!$C$2:$C$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'MaxHora Fase 1'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'MaxHora Fase 1'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MaxHora Fase 1'!$D$2:$D$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'MaxHora Fase 1'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'MaxHora Fase 1'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MaxHora Fase 1'!$E$2:$E$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </areaChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hora</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>KWh</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25203,7 +25413,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>44729.00211312115</v>
+        <v>44729.002113125</v>
       </c>
       <c r="B84" t="n">
         <v>231.22</v>
@@ -37564,7 +37774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -37649,6 +37859,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2022-06-16.xlsx
+++ b/2022-06-16.xlsx
@@ -147,6 +147,390 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Energias Fase 1</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <areaChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'MaxHora Fase 1'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'MaxHora Fase 1'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MaxHora Fase 1'!$B$2:$B$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'MaxHora Fase 1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'MaxHora Fase 1'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MaxHora Fase 1'!$C$2:$C$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'MaxHora Fase 1'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'MaxHora Fase 1'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MaxHora Fase 1'!$D$2:$D$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'MaxHora Fase 1'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'MaxHora Fase 1'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MaxHora Fase 1'!$E$2:$E$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </areaChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Energias Fase 1</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <areaChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'MaxHora Fase 1'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'MaxHora Fase 1'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MaxHora Fase 1'!$B$2:$B$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'MaxHora Fase 1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'MaxHora Fase 1'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MaxHora Fase 1'!$C$2:$C$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'MaxHora Fase 1'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'MaxHora Fase 1'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MaxHora Fase 1'!$D$2:$D$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'MaxHora Fase 1'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'MaxHora Fase 1'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MaxHora Fase 1'!$E$2:$E$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </areaChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hora</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>KWh</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25203,7 +25587,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>44729.00211312115</v>
+        <v>44729.002113125</v>
       </c>
       <c r="B84" t="n">
         <v>231.22</v>
@@ -37649,6 +38033,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
